--- a/CucumberTest/src/test/resources/Fixture/Book1.xlsx
+++ b/CucumberTest/src/test/resources/Fixture/Book1.xlsx
@@ -3,18 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ajit\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16392" windowHeight="5472"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21075" windowHeight="10635"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -407,12 +403,12 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="39.6">
+    <row r="1" spans="1:6" ht="25.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -432,7 +428,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="28.8">
+    <row r="2" spans="1:6" ht="30">
       <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
@@ -452,7 +448,7 @@
         <v>147852</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="26.4">
+    <row r="3" spans="1:6" ht="60">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
